--- a/Projektová dokumentace/hodnoceni-draft.xlsx
+++ b/Projektová dokumentace/hodnoceni-draft.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whiskey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kovar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Rychlost komunikace a plnění zadaných úkolů</t>
   </si>
@@ -81,12 +81,15 @@
   </si>
   <si>
     <t>Projektový tým</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,6 +237,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -241,30 +274,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -556,7 +565,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,47 +579,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -624,14 +633,22 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
         <v>1</v>
       </c>
     </row>
@@ -639,14 +656,22 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
         <v>1</v>
       </c>
     </row>
@@ -654,14 +679,22 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
         <v>1</v>
       </c>
     </row>
@@ -669,14 +702,22 @@
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
         <v>1</v>
       </c>
     </row>
@@ -684,14 +725,22 @@
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
         <v>1</v>
       </c>
     </row>
@@ -699,23 +748,35 @@
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -727,83 +788,83 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
